--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D34FE2-4BE1-48A1-85AF-7F98BF420969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852F916A-2E09-4102-A653-40F59725757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3552" yWindow="3096" windowWidth="17280" windowHeight="9420" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1636,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2100,7 @@
       <c r="D24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2120,7 +2120,7 @@
       <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852F916A-2E09-4102-A653-40F59725757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A1D52-CAF2-4BD9-9CB2-79C35F506161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3096" windowWidth="17280" windowHeight="9420" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="332">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1027,13 +1027,16 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/count-of-range-sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,8 +1163,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,6 +1205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,6 +1333,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1636,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2138,7 +2160,7 @@
       <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2156,7 +2178,7 @@
       <c r="D27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2174,7 +2196,7 @@
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2192,7 +2214,7 @@
       <c r="D29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2210,7 +2232,7 @@
       <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="13" t="s">
@@ -2230,7 +2252,9 @@
       <c r="D31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="28" t="s">
+        <v>331</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="13" t="s">
@@ -2250,7 +2274,7 @@
       <c r="D32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="13" t="s">

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A1D52-CAF2-4BD9-9CB2-79C35F506161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41AE66D-05E8-4525-8868-4CC6246BF029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1658,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2294,7 +2294,7 @@
       <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="13" t="s">
@@ -2314,7 +2314,7 @@
       <c r="D34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2332,7 +2332,7 @@
       <c r="D35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2350,7 +2350,7 @@
       <c r="D36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41AE66D-05E8-4525-8868-4CC6246BF029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C728D80-AD42-4DD9-A0B1-B9E35EAD56CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1254,12 +1254,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,6 +1356,9 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1348,6 +1366,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1658,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2424,7 +2447,7 @@
       <c r="D41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2444,7 +2467,7 @@
       <c r="D42" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2459,10 +2482,10 @@
       <c r="C43" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2482,7 +2505,7 @@
       <c r="D44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C728D80-AD42-4DD9-A0B1-B9E35EAD56CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7E7D7-1A31-4199-A281-FEB4A9A82BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1171,7 +1171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1211,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,6 +1370,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1681,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,7 +2541,7 @@
       <c r="D45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="13" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2563,7 @@
       <c r="D46" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13" t="s">
         <v>23</v>
       </c>
@@ -2565,7 +2583,7 @@
       <c r="D47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="12"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -2585,7 +2603,7 @@
       <c r="D48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="13" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2623,7 @@
       <c r="D49" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="12" t="s">
         <v>23</v>
       </c>
@@ -2625,7 +2643,7 @@
       <c r="D50" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="13" t="s">
         <v>23</v>
       </c>
@@ -2645,7 +2663,7 @@
       <c r="D51" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7E7D7-1A31-4199-A281-FEB4A9A82BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D20C7-8B56-4AA7-890F-AE5996CA67AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:J345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,7 +2683,7 @@
       <c r="D52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -2721,7 +2721,7 @@
       <c r="D54" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -2739,7 +2739,7 @@
       <c r="D55" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="5"/>
       <c r="G55" s="12" t="s">
         <v>23</v>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D20C7-8B56-4AA7-890F-AE5996CA67AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98AE325-722E-4416-B2DB-7E901C468F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1699,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3033,7 +3033,7 @@
       <c r="D72" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3051,7 +3051,7 @@
       <c r="D73" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="26"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98AE325-722E-4416-B2DB-7E901C468F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FE87F-C8E2-416F-9F2C-5E5FF6F417E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1699,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64153913-EA08-48E5-80E5-69ABDB1C4859}">
   <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3069,7 +3069,7 @@
       <c r="D74" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3087,7 +3087,7 @@
       <c r="D75" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3105,7 +3105,7 @@
       <c r="D76" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3125,7 +3125,7 @@
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -3143,7 +3143,7 @@
       <c r="D78" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="13" t="s">
         <v>23</v>
       </c>

--- a/.DSA Sheet Arsh.xlsx
+++ b/.DSA Sheet Arsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code Program\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FE87F-C8E2-416F-9F2C-5E5FF6F417E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871027B8-D2AF-4481-97E5-156EC7A1C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{439C6DBD-8425-4891-A11D-2A9251226A05}"/>
   </bookViews>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:J345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,7 +3163,7 @@
       <c r="D79" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -3181,7 +3181,7 @@
       <c r="D80" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
